--- a/biology/Botanique/Cytisus_procumbens/Cytisus_procumbens.xlsx
+++ b/biology/Botanique/Cytisus_procumbens/Cytisus_procumbens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytisus procumbens est une espèce de plante de la famille des Fabaceae et du genre Cytisus.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cytisus procumbens est un arbuste d'une hauteur de moins d'un mètre généralement. La tige est couchée, très rameuse, à rameaux diffus, tuberculés. Les feuilles, courtement pétiolées, planes, unifoliolées, sont oblongues, ovales, les inférieures fasciculées, les supérieures alternes, glabrescentes en dessus, velues en dessous et sur les bords[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytisus procumbens est un arbuste d'une hauteur de moins d'un mètre généralement. La tige est couchée, très rameuse, à rameaux diffus, tuberculés. Les feuilles, courtement pétiolées, planes, unifoliolées, sont oblongues, ovales, les inférieures fasciculées, les supérieures alternes, glabrescentes en dessus, velues en dessous et sur les bords.
 Les fleurs naissent au centre de fascicules de feuilles et forment des grappes lâches.
-Le cultivar Zeelandia donne des fleurs roses[3].
+Le cultivar Zeelandia donne des fleurs roses.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cytisus procumbens est présente en France, en Suisse, dans l'Italie septentrionale et dans les Balkans[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytisus procumbens est présente en France, en Suisse, dans l'Italie septentrionale et dans les Balkans.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasite Chesias angeri (en), Protopirapion atratulum. La feuille a pour parasite Phyllonorycter staintoniella, Uromyces genistae. La racine a pour parasite Bembecia megillaeformis (en), Bembecia uroceriformis (en). La tige a pour parasite Anthaxia chevrieri (id), Trifurcula corothamni (en), Trifurcula pallidella[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasite Chesias angeri (en), Protopirapion atratulum. La feuille a pour parasite Phyllonorycter staintoniella, Uromyces genistae. La racine a pour parasite Bembecia megillaeformis (en), Bembecia uroceriformis (en). La tige a pour parasite Anthaxia chevrieri (id), Trifurcula corothamni (en), Trifurcula pallidella.
 </t>
         </is>
       </c>
